--- a/templates/Teilnehmerliste.xlsx
+++ b/templates/Teilnehmerliste.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6017277D-2794-47AA-9E4D-817F3540857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -95,11 +107,26 @@
   <si>
     <t>v0.1</t>
   </si>
+  <si>
+    <t>Verein #11</t>
+  </si>
+  <si>
+    <t>Verein #12</t>
+  </si>
+  <si>
+    <t>Verein #13</t>
+  </si>
+  <si>
+    <t>Verein #14</t>
+  </si>
+  <si>
+    <t>Verein #15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -617,37 +644,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1">
@@ -662,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
@@ -676,6 +701,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -713,66 +794,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1049,104 +1074,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N345"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="J3" s="53" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="J3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="E5" s="46" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="E5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="J5" s="54" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="J5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="12">
-        <f>ISTEXT(B3)+ISTEXT(B26)+ISTEXT(B51)+ISTEXT(B74)+ISTEXT(B99)+ISTEXT(B122)+ISTEXT(B147)+ISTEXT(B170)+ISTEXT(B195)+ISTEXT(B218)</f>
+      <c r="K5" s="41"/>
+      <c r="L5" s="11">
+        <f>ISTEXT(B3)+ISTEXT(B26)+ISTEXT(B49)+ISTEXT(B72)+ISTEXT(B95)+ISTEXT(B118)+ISTEXT(B141)+ISTEXT(B164)+ISTEXT(B187)+ISTEXT(B210)+ISTEXT(B233)+ISTEXT(B256)+ISTEXT(B279)+ISTEXT(B302)+ISTEXT(B325)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="12">
-        <f>COUNTA(A7:A18)+COUNTA(E7:E18)+COUNTA(A30:A41)+COUNTA(E30:E41)+COUNTA(A55:A66)+COUNTA(E55:E66)+COUNTA(A78:A89)+COUNTA(E78:E89)+COUNTA(A103:A114)+COUNTA(E103:E114)+COUNTA(A126:A137)+COUNTA(E126:E137)+COUNTA(A151:A162)+COUNTA(E151:E162)+COUNTA(A174:A185)+COUNTA(E174:E185)+COUNTA(A199:A210)+COUNTA(E199:E210)+COUNTA(A222:A233)+COUNTA(E222:E233)</f>
+      <c r="K6" s="41"/>
+      <c r="L6" s="11">
+        <f>COUNTA(A7:A18)+COUNTA(E7:E18)+COUNTA(A30:A41)+COUNTA(E30:E41)+COUNTA(A53:A64)+COUNTA(E53:E64)+COUNTA(A76:A87)+COUNTA(E76:E87)+COUNTA(A99:A110)+COUNTA(E99:E110)+COUNTA(A122:A133)+COUNTA(E122:E133)+COUNTA(A145:A156)+COUNTA(E145:E156)+COUNTA(A168:A179)+COUNTA(E168:E179)+COUNTA(A191:A202)+COUNTA(E191:E202)+COUNTA(A214:A225)+COUNTA(E214:E225)+COUNTA(A237:A248)+COUNTA(E237:E248)+COUNTA(A260:A271)+COUNTA(E260:E271)+COUNTA(A283:A294)+COUNTA(E283:E294)+COUNTA(A306:A317)+COUNTA(E306:E317)+COUNTA(A329:A340)+COUNTA(E329:E340)</f>
         <v>0</v>
       </c>
     </row>
@@ -1173,13 +1197,13 @@
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1188,11 +1212,11 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1201,11 +1225,11 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="28"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1214,11 +1238,11 @@
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="28"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1227,11 +1251,11 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1240,11 +1264,11 @@
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="28"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1253,11 +1277,11 @@
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1266,11 +1290,11 @@
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -1279,11 +1303,11 @@
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
@@ -1292,98 +1316,97 @@
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="31"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="E20" s="49" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="E20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="E21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="E21" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="E22" s="20" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="E22" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="21"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="E23" s="22" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="E23" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="E28" s="46" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="E28" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1485,99 +1508,115 @@
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="E43" s="49" t="s">
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
+      <c r="E43" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
-      <c r="E44" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="34"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+      <c r="E44" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="E45" s="20" t="s">
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="53"/>
+      <c r="E45" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="E46" s="22" t="s">
+      <c r="A46" s="54"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="56"/>
+      <c r="E46" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="40"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="42"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="E51" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
-      <c r="E53" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="48"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
@@ -1643,125 +1682,125 @@
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="6"/>
-    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="49" t="s">
+      <c r="A66" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="51"/>
-      <c r="E68" s="49" t="s">
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="E66" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="50"/>
-      <c r="G68" s="51"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="34"/>
-      <c r="E69" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="34"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="37"/>
-      <c r="E70" s="20" t="s">
+      <c r="F66" s="46"/>
+      <c r="G66" s="47"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="48"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="50"/>
+      <c r="E67" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="49"/>
+      <c r="G67" s="50"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="51"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="53"/>
+      <c r="E68" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="36"/>
-      <c r="G70" s="37"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="38"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="40"/>
-      <c r="E71" s="22" t="s">
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="54"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="56"/>
+      <c r="E69" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="39"/>
-      <c r="G71" s="40"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="38"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="42"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
+      <c r="E74" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="35"/>
+      <c r="G74" s="36"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="45"/>
-      <c r="E76" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="47"/>
-      <c r="G76" s="48"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="3"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="3"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -1827,125 +1866,141 @@
       <c r="F86" s="5"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="6"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="6"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="6"/>
-    </row>
+    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="49" t="s">
+      <c r="A89" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="50"/>
-      <c r="C91" s="51"/>
-      <c r="E91" s="49" t="s">
+      <c r="B89" s="46"/>
+      <c r="C89" s="47"/>
+      <c r="E89" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F91" s="50"/>
-      <c r="G91" s="51"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="34"/>
-      <c r="E92" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F92" s="33"/>
-      <c r="G92" s="34"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="37"/>
-      <c r="E93" s="20" t="s">
+      <c r="F89" s="46"/>
+      <c r="G89" s="47"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="48"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="E90" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="49"/>
+      <c r="G90" s="50"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="53"/>
+      <c r="E91" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="36"/>
-      <c r="G93" s="37"/>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="38"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="40"/>
-      <c r="E94" s="22" t="s">
+      <c r="F91" s="52"/>
+      <c r="G91" s="53"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="54"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="56"/>
+      <c r="E92" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="39"/>
-      <c r="G94" s="40"/>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="11" t="s">
+      <c r="F92" s="55"/>
+      <c r="G92" s="56"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="42"/>
-    </row>
-    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="38"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="32"/>
+      <c r="C97" s="33"/>
+      <c r="E97" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="35"/>
+      <c r="G97" s="36"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="6"/>
+    </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="44"/>
-      <c r="C101" s="45"/>
-      <c r="E101" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="47"/>
-      <c r="G101" s="48"/>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="A101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="6"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="3"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="3"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="6"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
@@ -1995,141 +2050,141 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="6"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="6"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="6"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="6"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="6"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="6"/>
+    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="46"/>
+      <c r="C112" s="47"/>
+      <c r="E112" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="46"/>
+      <c r="G112" s="47"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="6"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="6"/>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="9"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" s="50"/>
-      <c r="C116" s="51"/>
-      <c r="E116" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" s="50"/>
-      <c r="G116" s="51"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="32"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="34"/>
-      <c r="E117" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F117" s="33"/>
-      <c r="G117" s="34"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="35"/>
-      <c r="B118" s="36"/>
+      <c r="A113" s="48"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="50"/>
+      <c r="E113" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="49"/>
+      <c r="G113" s="50"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="51"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="53"/>
+      <c r="E114" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="52"/>
+      <c r="G114" s="53"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="54"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="56"/>
+      <c r="E115" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="55"/>
+      <c r="G115" s="56"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="37"/>
       <c r="C118" s="37"/>
-      <c r="E118" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" s="36"/>
-      <c r="G118" s="37"/>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="38"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="40"/>
-      <c r="E119" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" s="39"/>
-      <c r="G119" s="40"/>
-    </row>
-    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="41"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="42"/>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="38"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="32"/>
+      <c r="C120" s="33"/>
+      <c r="E120" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" s="35"/>
+      <c r="G120" s="36"/>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="6"/>
+    </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="44"/>
-      <c r="C124" s="45"/>
-      <c r="E124" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" s="47"/>
-      <c r="G124" s="48"/>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F125" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G125" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="3"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="3"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
@@ -2179,141 +2234,157 @@
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="6"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="6"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="6"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="6"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="6"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="6"/>
+    <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="9"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="46"/>
+      <c r="C135" s="47"/>
+      <c r="E135" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" s="46"/>
+      <c r="G135" s="47"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="6"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="6"/>
-    </row>
-    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="7"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="9"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="9"/>
-    </row>
-    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B139" s="50"/>
-      <c r="C139" s="51"/>
-      <c r="E139" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" s="50"/>
-      <c r="G139" s="51"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="32"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="E140" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F140" s="33"/>
-      <c r="G140" s="34"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
-      <c r="B141" s="36"/>
+      <c r="A136" s="48"/>
+      <c r="B136" s="49"/>
+      <c r="C136" s="50"/>
+      <c r="E136" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" s="49"/>
+      <c r="G136" s="50"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="51"/>
+      <c r="B137" s="52"/>
+      <c r="C137" s="53"/>
+      <c r="E137" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="52"/>
+      <c r="G137" s="53"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="54"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="56"/>
+      <c r="E138" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="55"/>
+      <c r="G138" s="56"/>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" s="37"/>
       <c r="C141" s="37"/>
-      <c r="E141" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141" s="36"/>
-      <c r="G141" s="37"/>
-    </row>
-    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="38"/>
-      <c r="B142" s="39"/>
-      <c r="C142" s="40"/>
-      <c r="E142" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="39"/>
-      <c r="G142" s="40"/>
-    </row>
-    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B147" s="41"/>
-      <c r="C147" s="41"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="41"/>
-      <c r="F147" s="41"/>
-      <c r="G147" s="42"/>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="37"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="38"/>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="32"/>
+      <c r="C143" s="33"/>
+      <c r="E143" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" s="35"/>
+      <c r="G143" s="36"/>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="3"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="6"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="6"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="6"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="6"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="6"/>
+    </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="44"/>
-      <c r="C149" s="45"/>
-      <c r="E149" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" s="47"/>
-      <c r="G149" s="48"/>
-    </row>
-    <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F150" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G150" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="6"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="6"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="3"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="3"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="6"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
@@ -2347,157 +2418,157 @@
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="6"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="6"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="6"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="6"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="6"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="6"/>
+    <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="7"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="9"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="46"/>
+      <c r="C158" s="47"/>
+      <c r="E158" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" s="46"/>
+      <c r="G158" s="47"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="6"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="6"/>
+      <c r="A159" s="48"/>
+      <c r="B159" s="49"/>
+      <c r="C159" s="50"/>
+      <c r="E159" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" s="49"/>
+      <c r="G159" s="50"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="6"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="6"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="6"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="6"/>
-    </row>
-    <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="7"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="9"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="9"/>
+      <c r="A160" s="51"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="53"/>
+      <c r="E160" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="52"/>
+      <c r="G160" s="53"/>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="54"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="56"/>
+      <c r="E161" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="55"/>
+      <c r="G161" s="56"/>
     </row>
     <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B164" s="50"/>
-      <c r="C164" s="51"/>
-      <c r="E164" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F164" s="50"/>
-      <c r="G164" s="51"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="32"/>
-      <c r="B165" s="33"/>
-      <c r="C165" s="34"/>
-      <c r="E165" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F165" s="33"/>
-      <c r="G165" s="34"/>
-    </row>
+    <row r="164" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="38"/>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
-      <c r="B166" s="36"/>
-      <c r="C166" s="37"/>
-      <c r="E166" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F166" s="36"/>
-      <c r="G166" s="37"/>
+      <c r="A166" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="32"/>
+      <c r="C166" s="33"/>
+      <c r="E166" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F166" s="35"/>
+      <c r="G166" s="36"/>
     </row>
     <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="38"/>
-      <c r="B167" s="39"/>
-      <c r="C167" s="40"/>
-      <c r="E167" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" s="39"/>
-      <c r="G167" s="40"/>
-    </row>
-    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B170" s="41"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="41"/>
-      <c r="E170" s="41"/>
-      <c r="F170" s="41"/>
-      <c r="G170" s="42"/>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A167" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G167" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="3"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="3"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="6"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="6"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="6"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="6"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="6"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="6"/>
+    </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="44"/>
-      <c r="C172" s="45"/>
-      <c r="E172" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F172" s="47"/>
-      <c r="G172" s="48"/>
-    </row>
-    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F173" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G173" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="A172" s="4"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="6"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="6"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="6"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="6"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="3"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="3"/>
+      <c r="A174" s="4"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="6"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="6"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
@@ -2531,157 +2602,173 @@
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="6"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="6"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="6"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="6"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="6"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="6"/>
+    <row r="179" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="7"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="9"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="9"/>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="46"/>
+      <c r="C181" s="47"/>
+      <c r="E181" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" s="46"/>
+      <c r="G181" s="47"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="6"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="6"/>
+      <c r="A182" s="48"/>
+      <c r="B182" s="49"/>
+      <c r="C182" s="50"/>
+      <c r="E182" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F182" s="49"/>
+      <c r="G182" s="50"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="6"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="6"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="6"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="6"/>
-    </row>
-    <row r="185" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="7"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="9"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="9"/>
+      <c r="A183" s="51"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="53"/>
+      <c r="E183" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="52"/>
+      <c r="G183" s="53"/>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="54"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="56"/>
+      <c r="E184" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="55"/>
+      <c r="G184" s="56"/>
     </row>
     <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B187" s="50"/>
-      <c r="C187" s="51"/>
-      <c r="E187" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" s="50"/>
-      <c r="G187" s="51"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="32"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="34"/>
-      <c r="E188" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F188" s="33"/>
-      <c r="G188" s="34"/>
-    </row>
+    <row r="187" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" s="37"/>
+      <c r="C187" s="37"/>
+      <c r="D187" s="37"/>
+      <c r="E187" s="37"/>
+      <c r="F187" s="37"/>
+      <c r="G187" s="38"/>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="35"/>
-      <c r="B189" s="36"/>
-      <c r="C189" s="37"/>
-      <c r="E189" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F189" s="36"/>
-      <c r="G189" s="37"/>
+      <c r="A189" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="32"/>
+      <c r="C189" s="33"/>
+      <c r="E189" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189" s="35"/>
+      <c r="G189" s="36"/>
     </row>
     <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="38"/>
-      <c r="B190" s="39"/>
-      <c r="C190" s="40"/>
-      <c r="E190" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F190" s="39"/>
-      <c r="G190" s="40"/>
-    </row>
-    <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="195" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B195" s="41"/>
-      <c r="C195" s="41"/>
-      <c r="D195" s="41"/>
-      <c r="E195" s="41"/>
-      <c r="F195" s="41"/>
-      <c r="G195" s="42"/>
-    </row>
-    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A190" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E190" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G190" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="3"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="6"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="6"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="6"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="6"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="6"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="6"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="6"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="6"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="6"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="6"/>
+    </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" s="44"/>
-      <c r="C197" s="45"/>
-      <c r="E197" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F197" s="47"/>
-      <c r="G197" s="48"/>
-    </row>
-    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B198" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C198" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F198" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G198" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="A197" s="4"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="6"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="6"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="6"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="6"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="3"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="3"/>
+      <c r="A199" s="4"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="6"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="6"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
@@ -2699,173 +2786,173 @@
       <c r="F201" s="5"/>
       <c r="G201" s="6"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="6"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="6"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="6"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="6"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="4"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="6"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="6"/>
+    <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="7"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="9"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="9"/>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="46"/>
+      <c r="C204" s="47"/>
+      <c r="E204" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" s="46"/>
+      <c r="G204" s="47"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="4"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="6"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="6"/>
+      <c r="A205" s="48"/>
+      <c r="B205" s="49"/>
+      <c r="C205" s="50"/>
+      <c r="E205" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F205" s="49"/>
+      <c r="G205" s="50"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="6"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="6"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="6"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="6"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="6"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="6"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="6"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="6"/>
-    </row>
-    <row r="210" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="7"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="9"/>
-      <c r="E210" s="7"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="9"/>
+      <c r="A206" s="51"/>
+      <c r="B206" s="52"/>
+      <c r="C206" s="53"/>
+      <c r="E206" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="52"/>
+      <c r="G206" s="53"/>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="54"/>
+      <c r="B207" s="55"/>
+      <c r="C207" s="56"/>
+      <c r="E207" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" s="55"/>
+      <c r="G207" s="56"/>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="210" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B210" s="37"/>
+      <c r="C210" s="37"/>
+      <c r="D210" s="37"/>
+      <c r="E210" s="37"/>
+      <c r="F210" s="37"/>
+      <c r="G210" s="38"/>
     </row>
     <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="212" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B212" s="50"/>
-      <c r="C212" s="51"/>
-      <c r="E212" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F212" s="50"/>
-      <c r="G212" s="51"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="32"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="34"/>
-      <c r="E213" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F213" s="33"/>
-      <c r="G213" s="34"/>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="32"/>
+      <c r="C212" s="33"/>
+      <c r="E212" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F212" s="35"/>
+      <c r="G212" s="36"/>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E213" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F213" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G213" s="17" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="35"/>
-      <c r="B214" s="36"/>
-      <c r="C214" s="37"/>
-      <c r="E214" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F214" s="36"/>
-      <c r="G214" s="37"/>
-    </row>
-    <row r="215" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="38"/>
-      <c r="B215" s="39"/>
-      <c r="C215" s="40"/>
-      <c r="E215" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F215" s="39"/>
-      <c r="G215" s="40"/>
-    </row>
-    <row r="217" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="218" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B218" s="41"/>
-      <c r="C218" s="41"/>
-      <c r="D218" s="41"/>
-      <c r="E218" s="41"/>
-      <c r="F218" s="41"/>
-      <c r="G218" s="42"/>
-    </row>
-    <row r="219" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A214" s="1"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="3"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="3"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="6"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="6"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="6"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="6"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="6"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="6"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="6"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="6"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="6"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="6"/>
+    </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B220" s="44"/>
-      <c r="C220" s="45"/>
-      <c r="E220" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F220" s="47"/>
-      <c r="G220" s="48"/>
-    </row>
-    <row r="221" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B221" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C221" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F221" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G221" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="A220" s="4"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="6"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="6"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="6"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="6"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="3"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="3"/>
+      <c r="A222" s="4"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="6"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="6"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
@@ -2883,135 +2970,1126 @@
       <c r="F224" s="5"/>
       <c r="G224" s="6"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="6"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="6"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
-      <c r="B226" s="5"/>
-      <c r="C226" s="6"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="6"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="6"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="6"/>
+    <row r="225" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="7"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="9"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="9"/>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="227" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="46"/>
+      <c r="C227" s="47"/>
+      <c r="E227" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="46"/>
+      <c r="G227" s="47"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="6"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="6"/>
+      <c r="A228" s="48"/>
+      <c r="B228" s="49"/>
+      <c r="C228" s="50"/>
+      <c r="E228" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F228" s="49"/>
+      <c r="G228" s="50"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="4"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="6"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="6"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="4"/>
-      <c r="B230" s="5"/>
-      <c r="C230" s="6"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="6"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
-      <c r="B231" s="5"/>
-      <c r="C231" s="6"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="6"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="6"/>
-      <c r="E232" s="4"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="6"/>
-    </row>
-    <row r="233" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="7"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="9"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="9"/>
+      <c r="A229" s="51"/>
+      <c r="B229" s="52"/>
+      <c r="C229" s="53"/>
+      <c r="E229" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="52"/>
+      <c r="G229" s="53"/>
+    </row>
+    <row r="230" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="54"/>
+      <c r="B230" s="55"/>
+      <c r="C230" s="56"/>
+      <c r="E230" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="55"/>
+      <c r="G230" s="56"/>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="233" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A233" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B233" s="37"/>
+      <c r="C233" s="37"/>
+      <c r="D233" s="37"/>
+      <c r="E233" s="37"/>
+      <c r="F233" s="37"/>
+      <c r="G233" s="38"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="235" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="49" t="s">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" s="32"/>
+      <c r="C235" s="33"/>
+      <c r="E235" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F235" s="35"/>
+      <c r="G235" s="36"/>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E236" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F236" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G236" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="3"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="3"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="6"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="6"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="6"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="6"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="6"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="6"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="6"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="6"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="6"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="6"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="6"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="6"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="6"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="6"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="6"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="6"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="6"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="6"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="6"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="6"/>
+    </row>
+    <row r="248" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="7"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="9"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="8"/>
+      <c r="G248" s="9"/>
+    </row>
+    <row r="249" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="250" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B235" s="50"/>
-      <c r="C235" s="51"/>
-      <c r="E235" s="49" t="s">
+      <c r="B250" s="46"/>
+      <c r="C250" s="47"/>
+      <c r="E250" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F235" s="50"/>
-      <c r="G235" s="51"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="32"/>
-      <c r="B236" s="33"/>
-      <c r="C236" s="34"/>
-      <c r="E236" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F236" s="33"/>
-      <c r="G236" s="34"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="35"/>
-      <c r="B237" s="36"/>
-      <c r="C237" s="37"/>
-      <c r="E237" s="20" t="s">
+      <c r="F250" s="46"/>
+      <c r="G250" s="47"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="48"/>
+      <c r="B251" s="49"/>
+      <c r="C251" s="50"/>
+      <c r="E251" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F251" s="49"/>
+      <c r="G251" s="50"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="51"/>
+      <c r="B252" s="52"/>
+      <c r="C252" s="53"/>
+      <c r="E252" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F237" s="36"/>
-      <c r="G237" s="37"/>
-    </row>
-    <row r="238" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="38"/>
-      <c r="B238" s="39"/>
-      <c r="C238" s="40"/>
-      <c r="E238" s="22" t="s">
+      <c r="F252" s="52"/>
+      <c r="G252" s="53"/>
+    </row>
+    <row r="253" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="54"/>
+      <c r="B253" s="55"/>
+      <c r="C253" s="56"/>
+      <c r="E253" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F238" s="39"/>
-      <c r="G238" s="40"/>
+      <c r="F253" s="55"/>
+      <c r="G253" s="56"/>
+    </row>
+    <row r="255" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="256" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B256" s="37"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="37"/>
+      <c r="F256" s="37"/>
+      <c r="G256" s="38"/>
+    </row>
+    <row r="257" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="32"/>
+      <c r="C258" s="33"/>
+      <c r="E258" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F258" s="35"/>
+      <c r="G258" s="36"/>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E259" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F259" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G259" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="3"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="3"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="6"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="6"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="6"/>
+      <c r="E262" s="4"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="6"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="6"/>
+      <c r="E263" s="4"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="6"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="6"/>
+      <c r="E264" s="4"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="6"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="6"/>
+      <c r="E265" s="4"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="6"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="6"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="6"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="6"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="6"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="4"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="6"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="6"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="4"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="6"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="6"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="6"/>
+      <c r="E270" s="4"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="6"/>
+    </row>
+    <row r="271" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="7"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="9"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="8"/>
+      <c r="G271" s="9"/>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="273" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273" s="46"/>
+      <c r="C273" s="47"/>
+      <c r="E273" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F273" s="46"/>
+      <c r="G273" s="47"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="48"/>
+      <c r="B274" s="49"/>
+      <c r="C274" s="50"/>
+      <c r="E274" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F274" s="49"/>
+      <c r="G274" s="50"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="51"/>
+      <c r="B275" s="52"/>
+      <c r="C275" s="53"/>
+      <c r="E275" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275" s="52"/>
+      <c r="G275" s="53"/>
+    </row>
+    <row r="276" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="54"/>
+      <c r="B276" s="55"/>
+      <c r="C276" s="56"/>
+      <c r="E276" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" s="55"/>
+      <c r="G276" s="56"/>
+    </row>
+    <row r="278" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="279" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A279" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B279" s="37"/>
+      <c r="C279" s="37"/>
+      <c r="D279" s="37"/>
+      <c r="E279" s="37"/>
+      <c r="F279" s="37"/>
+      <c r="G279" s="38"/>
+    </row>
+    <row r="280" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" s="32"/>
+      <c r="C281" s="33"/>
+      <c r="E281" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F281" s="35"/>
+      <c r="G281" s="36"/>
+    </row>
+    <row r="282" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E282" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F282" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G282" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="3"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="3"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="6"/>
+      <c r="E284" s="4"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="6"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="6"/>
+      <c r="E285" s="4"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="6"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="6"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="6"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="6"/>
+      <c r="E287" s="4"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="6"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="6"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="6"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="6"/>
+      <c r="E289" s="4"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="6"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="6"/>
+      <c r="E290" s="4"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="6"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="6"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="6"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="6"/>
+      <c r="E292" s="4"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="6"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="4"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="6"/>
+      <c r="E293" s="4"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="6"/>
+    </row>
+    <row r="294" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="7"/>
+      <c r="B294" s="8"/>
+      <c r="C294" s="9"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="8"/>
+      <c r="G294" s="9"/>
+    </row>
+    <row r="295" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="296" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296" s="46"/>
+      <c r="C296" s="47"/>
+      <c r="E296" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F296" s="46"/>
+      <c r="G296" s="47"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="48"/>
+      <c r="B297" s="49"/>
+      <c r="C297" s="50"/>
+      <c r="E297" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F297" s="49"/>
+      <c r="G297" s="50"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="51"/>
+      <c r="B298" s="52"/>
+      <c r="C298" s="53"/>
+      <c r="E298" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F298" s="52"/>
+      <c r="G298" s="53"/>
+    </row>
+    <row r="299" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="54"/>
+      <c r="B299" s="55"/>
+      <c r="C299" s="56"/>
+      <c r="E299" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F299" s="55"/>
+      <c r="G299" s="56"/>
+    </row>
+    <row r="301" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="302" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A302" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B302" s="37"/>
+      <c r="C302" s="37"/>
+      <c r="D302" s="37"/>
+      <c r="E302" s="37"/>
+      <c r="F302" s="37"/>
+      <c r="G302" s="38"/>
+    </row>
+    <row r="303" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" s="32"/>
+      <c r="C304" s="33"/>
+      <c r="E304" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F304" s="35"/>
+      <c r="G304" s="36"/>
+    </row>
+    <row r="305" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B305" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E305" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F305" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G305" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="1"/>
+      <c r="B306" s="2"/>
+      <c r="C306" s="3"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="3"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="4"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="6"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="6"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="4"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="6"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="6"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="4"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="6"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="6"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="4"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="6"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="6"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="4"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="6"/>
+      <c r="E311" s="4"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="6"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="4"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="6"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="6"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="4"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="6"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="6"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="4"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="6"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="6"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="4"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="6"/>
+      <c r="E315" s="4"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="6"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="4"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="6"/>
+      <c r="E316" s="4"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="6"/>
+    </row>
+    <row r="317" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="7"/>
+      <c r="B317" s="8"/>
+      <c r="C317" s="9"/>
+      <c r="E317" s="7"/>
+      <c r="F317" s="8"/>
+      <c r="G317" s="9"/>
+    </row>
+    <row r="318" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="319" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B319" s="46"/>
+      <c r="C319" s="47"/>
+      <c r="E319" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F319" s="46"/>
+      <c r="G319" s="47"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="48"/>
+      <c r="B320" s="49"/>
+      <c r="C320" s="50"/>
+      <c r="E320" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F320" s="49"/>
+      <c r="G320" s="50"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="51"/>
+      <c r="B321" s="52"/>
+      <c r="C321" s="53"/>
+      <c r="E321" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F321" s="52"/>
+      <c r="G321" s="53"/>
+    </row>
+    <row r="322" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="54"/>
+      <c r="B322" s="55"/>
+      <c r="C322" s="56"/>
+      <c r="E322" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F322" s="55"/>
+      <c r="G322" s="56"/>
+    </row>
+    <row r="324" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="325" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A325" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B325" s="37"/>
+      <c r="C325" s="37"/>
+      <c r="D325" s="37"/>
+      <c r="E325" s="37"/>
+      <c r="F325" s="37"/>
+      <c r="G325" s="38"/>
+    </row>
+    <row r="326" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B327" s="32"/>
+      <c r="C327" s="33"/>
+      <c r="E327" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F327" s="35"/>
+      <c r="G327" s="36"/>
+    </row>
+    <row r="328" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B328" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C328" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E328" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F328" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G328" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
+      <c r="B329" s="2"/>
+      <c r="C329" s="3"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="2"/>
+      <c r="G329" s="3"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="4"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="6"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="6"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="4"/>
+      <c r="B331" s="5"/>
+      <c r="C331" s="6"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="6"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="4"/>
+      <c r="B332" s="5"/>
+      <c r="C332" s="6"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="6"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="4"/>
+      <c r="B333" s="5"/>
+      <c r="C333" s="6"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="6"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="4"/>
+      <c r="B334" s="5"/>
+      <c r="C334" s="6"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="6"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="4"/>
+      <c r="B335" s="5"/>
+      <c r="C335" s="6"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="6"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="4"/>
+      <c r="B336" s="5"/>
+      <c r="C336" s="6"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="6"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="4"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="6"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="6"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="4"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="6"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="6"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="4"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="6"/>
+      <c r="E339" s="4"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="6"/>
+    </row>
+    <row r="340" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="7"/>
+      <c r="B340" s="8"/>
+      <c r="C340" s="9"/>
+      <c r="E340" s="7"/>
+      <c r="F340" s="8"/>
+      <c r="G340" s="9"/>
+    </row>
+    <row r="341" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="342" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B342" s="46"/>
+      <c r="C342" s="47"/>
+      <c r="E342" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F342" s="46"/>
+      <c r="G342" s="47"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="48"/>
+      <c r="B343" s="49"/>
+      <c r="C343" s="50"/>
+      <c r="E343" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F343" s="49"/>
+      <c r="G343" s="50"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="51"/>
+      <c r="B344" s="52"/>
+      <c r="C344" s="53"/>
+      <c r="E344" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F344" s="52"/>
+      <c r="G344" s="53"/>
+    </row>
+    <row r="345" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="54"/>
+      <c r="B345" s="55"/>
+      <c r="C345" s="56"/>
+      <c r="E345" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F345" s="55"/>
+      <c r="G345" s="56"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qxFV7jUymqcJxzC5PcUFI1brrqxGXZQJhdcGJ9JlWISPUQ1HecQpuAZ+kSYI+qK+EaDtqmqQrCgeiU7nLAkiBg==" saltValue="7kvInWlQ4Co1cWeV9WhRJw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="115">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="J9:N9"/>
+  <mergeCells count="170">
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="E327:G327"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="E342:G342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="F343:G343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="F344:G344"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="F345:G345"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="E319:G319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="F320:G320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="B325:G325"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="B302:G302"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="E304:G304"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="F275:G275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="F276:G276"/>
+    <mergeCell ref="B279:G279"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="E281:G281"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="E296:G296"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="B256:G256"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="E258:G258"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="E273:G273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="F274:G274"/>
+    <mergeCell ref="B233:G233"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="E235:G235"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="E250:G250"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="F251:G251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="B210:G210"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="E212:G212"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="E227:G227"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="E204:G204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="B187:G187"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="E189:G189"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="E181:G181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="E120:G120"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:G51"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="F44:G44"/>
@@ -3024,98 +4102,17 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="E164:G164"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="E139:G139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="E187:G187"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="E212:G212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="E197:G197"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="B218:G218"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="E235:G235"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="J9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
